--- a/POMRobotSwag/Resources/TestDataLogin.xlsx
+++ b/POMRobotSwag/Resources/TestDataLogin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuvar\ROBOTFRAMEWORK\POMRobotSwag\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110494A7-BA1B-4E06-A362-CC48611C398A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D281FD9F-2341-4C7C-A511-5525E1155744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>${username}</t>
   </si>
@@ -48,26 +48,26 @@
     <t>performance_glitch_user</t>
   </si>
   <si>
-    <t>${expected_result}</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>locked_out</t>
-  </si>
-  <si>
     <t>secret_sau</t>
   </si>
   <si>
-    <t>wrong</t>
+    <t>error_user</t>
+  </si>
+  <si>
+    <t>visual_user</t>
+  </si>
+  <si>
+    <t>emptypassword</t>
+  </si>
+  <si>
+    <t>emptyusername</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +78,11 @@
     <font>
       <sz val="8"/>
       <color rgb="FF4A4A4A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -102,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,59 +404,70 @@
     <col min="3" max="3" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
